--- a/5 семестр (Квантовая физика)/1.2/1.2.xlsx
+++ b/5 семестр (Квантовая физика)/1.2/1.2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/5 семестр (Квантовая физика)/1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6825D5-0C21-894C-B231-3E408822BF02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C06434D-13DF-0047-A552-3D5D2C544500}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{0134507A-683F-C44C-BC3A-BAC7D241442C}"/>
+    <workbookView xWindow="4420" yWindow="1000" windowWidth="28240" windowHeight="17560" activeTab="2" xr2:uid="{0134507A-683F-C44C-BC3A-BAC7D241442C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>N</t>
   </si>
@@ -53,12 +55,48 @@
   <si>
     <t>110*</t>
   </si>
+  <si>
+    <t>0 824</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>1-theta</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +104,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,11 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -108,6 +154,974 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.8577766251635115E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5428130012554719E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1664914611080368E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3856768437074951E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4589914610552488E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8332811506619047E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.50430536852623E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.466907958870761E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7150330641101346E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12241743810962724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15039243715047224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18098900737917556</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21411273922305196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$L$3:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.7087378640776691E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5359477124183009E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2016806722689074E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2727272727272728E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3255813953488372E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3809523809523808E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3809523809523808E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6949152542372881E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8867924528301886E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1627906976744186E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6153846153846159E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7292-4848-AAA2-ECB7EC284100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1342136991"/>
+        <c:axId val="1598170927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1342136991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1598170927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1598170927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342136991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554788</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601577</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5530F66E-9C1F-474B-8823-42206499F6C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,15 +1421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A9FD6-F466-D340-A773-93A7F1A30045}">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -428,7 +1442,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>-5</v>
       </c>
@@ -470,8 +1484,16 @@
       <c r="H3">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="0">1-COS(B3/180)</f>
+        <v>3.8577766251635115E-4</v>
+      </c>
+      <c r="L3">
+        <f>1/C3</f>
+        <v>9.7087378640776691E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0</v>
       </c>
@@ -490,8 +1512,16 @@
       <c r="H4">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L17" si="1">1/C4</f>
+        <v>6.5359477124183009E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10</v>
       </c>
@@ -510,8 +1540,16 @@
       <c r="H5">
         <v>313</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <f>1-COS(B5/180)</f>
+        <v>1.5428130012554719E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>4.2016806722689074E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>20</v>
       </c>
@@ -530,8 +1568,16 @@
       <c r="H6">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <f t="shared" ref="K6:K17" si="2">1-COS(B6/180)</f>
+        <v>6.1664914611080368E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>30</v>
       </c>
@@ -550,8 +1596,16 @@
       <c r="H7">
         <v>313</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1.3856768437074951E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>40</v>
       </c>
@@ -570,8 +1624,16 @@
       <c r="H8">
         <v>313</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>2.4589914610552488E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>50</v>
       </c>
@@ -590,8 +1652,16 @@
       <c r="H9">
         <v>313</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>3.8332811506619047E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>60</v>
       </c>
@@ -610,8 +1680,16 @@
       <c r="H10">
         <v>313</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>5.50430536852623E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>70</v>
       </c>
@@ -630,8 +1708,16 @@
       <c r="H11">
         <v>313</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>7.466907958870761E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>80</v>
       </c>
@@ -650,8 +1736,16 @@
       <c r="H12">
         <v>313</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>9.7150330641101346E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>90</v>
       </c>
@@ -670,8 +1764,16 @@
       <c r="H13">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0.12241743810962724</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>100</v>
       </c>
@@ -690,8 +1792,16 @@
       <c r="H14">
         <v>313</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>0.15039243715047224</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>110</v>
       </c>
@@ -710,8 +1820,16 @@
       <c r="H15">
         <v>313</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0.18098900737917556</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -731,7 +1849,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>120</v>
       </c>
@@ -749,6 +1867,284 @@
       </c>
       <c r="H17">
         <v>313</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0.21411273922305196</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <v>40</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>824</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>824</v>
+      </c>
+      <c r="L22">
+        <v>839</v>
+      </c>
+      <c r="M22">
+        <v>704</v>
+      </c>
+      <c r="N22">
+        <v>685</v>
+      </c>
+      <c r="O22">
+        <v>595</v>
+      </c>
+      <c r="P22">
+        <v>531</v>
+      </c>
+      <c r="Q22">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>10839</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>839</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>70</v>
+      </c>
+      <c r="L23">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23">
+        <v>110</v>
+      </c>
+      <c r="P23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>20704</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>704</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>432</v>
+      </c>
+      <c r="L24">
+        <v>384</v>
+      </c>
+      <c r="M24">
+        <v>352</v>
+      </c>
+      <c r="N24">
+        <v>332</v>
+      </c>
+      <c r="O24">
+        <v>288</v>
+      </c>
+      <c r="P24">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>30685</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>40595</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>50531</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>60491</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3">
+        <v>70432</v>
+      </c>
+      <c r="F29">
+        <v>70</v>
+      </c>
+      <c r="G29">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3">
+        <v>80384</v>
+      </c>
+      <c r="F30">
+        <v>80</v>
+      </c>
+      <c r="G30">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3">
+        <v>90352</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3">
+        <v>100332</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3">
+        <v>110288</v>
+      </c>
+      <c r="F33">
+        <v>110</v>
+      </c>
+      <c r="G33">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3">
+        <v>120253</v>
+      </c>
+      <c r="F34">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -757,5 +2153,464 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA7E56-8440-BF49-B87B-56F2E36B59E2}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>1-COS(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>824</v>
+      </c>
+      <c r="E2">
+        <f>1/D2</f>
+        <v>1.2135922330097086E-3</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <f>$F$2/D2*E2</f>
+        <v>2.945612216042982E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>1-COS(A3/180 * 3.14)</f>
+        <v>1.5176886320902749E-2</v>
+      </c>
+      <c r="D3">
+        <v>839</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E14" si="0">1/D3</f>
+        <v>1.1918951132300357E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="1">$F$2/D3*E3</f>
+        <v>2.8412279218832793E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B14" si="2">1-COS(A4/180 * 3.14)</f>
+        <v>6.0246869526815905E-2</v>
+      </c>
+      <c r="D4">
+        <v>704</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.4204545454545455E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.0353822314049588E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>0.13384190559453701</v>
+      </c>
+      <c r="D5">
+        <v>685</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.4598540145985401E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.2623474878789491E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>0.23372810753170115</v>
+      </c>
+      <c r="D6">
+        <v>595</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.6806722689075631E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5.6493185509497916E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>0.35687355227465423</v>
+      </c>
+      <c r="D7">
+        <v>531</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.8832391713747645E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.0931795532006185E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>0.49954031099179419</v>
+      </c>
+      <c r="D8">
+        <v>491</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.0366598778004071E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>8.2959669156839399E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>0.65739790932547826</v>
+      </c>
+      <c r="D9">
+        <v>432</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148147E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.0716735253772289E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>0.82565477362610362</v>
+      </c>
+      <c r="D10">
+        <v>384</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.3563368055555556E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>0.99920367328926674</v>
+      </c>
+      <c r="D11">
+        <v>352</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.840909090909091E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.6141528925619835E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1.172776744472356</v>
+      </c>
+      <c r="D12">
+        <v>332</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.0120481927710845E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.8144868631151111E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>1.3411053896359399</v>
+      </c>
+      <c r="D13">
+        <v>288</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2.4112654320987653E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1.4990801993556198</v>
+      </c>
+      <c r="D14">
+        <v>253</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.952569169960474E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3.1245606086644065E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87211A55-9015-8F41-B414-BEE694E7E2C5}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.2135922330097086</v>
+      </c>
+      <c r="C2">
+        <v>2.945612216042982E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.5176886320902749E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.1918951132300357</v>
+      </c>
+      <c r="C3">
+        <v>2.8412279218832794E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.0246869526815905E-2</v>
+      </c>
+      <c r="B4">
+        <v>1.4204545454545454</v>
+      </c>
+      <c r="C4">
+        <v>4.0353822314049589E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.13384190559453701</v>
+      </c>
+      <c r="B5">
+        <v>1.4598540145985401</v>
+      </c>
+      <c r="C5">
+        <v>4.2623474878789494E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.23372810753170115</v>
+      </c>
+      <c r="B6">
+        <v>1.680672268907563</v>
+      </c>
+      <c r="C6">
+        <v>5.6493185509497917E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.35687355227465423</v>
+      </c>
+      <c r="B7">
+        <v>1.8832391713747645</v>
+      </c>
+      <c r="C7">
+        <v>7.0931795532006181E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.49954031099179419</v>
+      </c>
+      <c r="B8">
+        <v>2.0366598778004072</v>
+      </c>
+      <c r="C8">
+        <v>8.2959669156839402E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.65739790932547826</v>
+      </c>
+      <c r="B9">
+        <v>2.3148148148148149</v>
+      </c>
+      <c r="C9">
+        <v>0.10716735253772289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.82565477362610362</v>
+      </c>
+      <c r="B10">
+        <v>2.6041666666666665</v>
+      </c>
+      <c r="C10">
+        <v>0.13563368055555555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.99920367328926674</v>
+      </c>
+      <c r="B11">
+        <v>2.8409090909090908</v>
+      </c>
+      <c r="C11">
+        <v>0.16141528925619836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.172776744472356</v>
+      </c>
+      <c r="B12">
+        <v>3.0120481927710845</v>
+      </c>
+      <c r="C12">
+        <v>0.18144868631151112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.3411053896359399</v>
+      </c>
+      <c r="B13">
+        <v>3.4722222222222219</v>
+      </c>
+      <c r="C13">
+        <v>0.24112654320987653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.4990801993556198</v>
+      </c>
+      <c r="B14">
+        <v>3.9525691699604741</v>
+      </c>
+      <c r="C14">
+        <v>0.31245606086644068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>